--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T09:24:42+01:00</t>
+    <t>2025-06-23T10:40:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T10:40:32+01:00</t>
+    <t>2025-06-23T11:00:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T11:00:10+01:00</t>
+    <t>2025-06-23T12:00:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:00:39+01:00</t>
+    <t>2025-06-23T12:11:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T07:35:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NG Immunization Session types</t>
+    <t>NG-Imm Immunization Session types CS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T07:35:37+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A standardized classification of vaccine types administered for the prevention of specific diseases, identified by the antigen or disease target (e.g., BCG, HepB, OPV, Pentavalent, MR).</t>
+    <t>Type of session for immunization. Could be in a fixed facility, outreach or mobile.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -156,7 +156,7 @@
     <t>Outreach session</t>
   </si>
   <si>
-    <t>An immunization session conducted outside of fixed sites, typically within a 5–10 km radius of a health facility, aimed at increasing access for underserved populations.</t>
+    <t>An immunization session conducted outside of fixed sites, typically within a 5-10 km radius of a health facility, aimed at increasing access for underserved populations.</t>
   </si>
   <si>
     <t>mobile</t>

--- a/output/CodeSystem-nigeria-immunization-session-type.xlsx
+++ b/output/CodeSystem-nigeria-immunization-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-25T15:41:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
